--- a/Files/errors.xlsx
+++ b/Files/errors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>B01CW5E830</t>
   </si>
@@ -30,21 +30,6 @@
   </si>
   <si>
     <t>B0058HXFOS</t>
-  </si>
-  <si>
-    <t>B00I9CB5A0</t>
-  </si>
-  <si>
-    <t>B0083UXJMK</t>
-  </si>
-  <si>
-    <t>B00CFU1BN8</t>
-  </si>
-  <si>
-    <t>B00AWE4OK6</t>
-  </si>
-  <si>
-    <t>B00MBM4I6C</t>
   </si>
 </sst>
 </file>
@@ -383,7 +368,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,31 +401,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/Files/errors.xlsx
+++ b/Files/errors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>B01CW5E830</t>
   </si>
@@ -30,6 +30,21 @@
   </si>
   <si>
     <t>B0058HXFOS</t>
+  </si>
+  <si>
+    <t>B00I9CB5A0</t>
+  </si>
+  <si>
+    <t>B0083UXJMK</t>
+  </si>
+  <si>
+    <t>B00CFU1BN8</t>
+  </si>
+  <si>
+    <t>B00AWE4OK6</t>
+  </si>
+  <si>
+    <t>B00MBM4I6C</t>
   </si>
 </sst>
 </file>
@@ -368,7 +383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,6 +414,31 @@
     <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
